--- a/diaries/CEX_Diary_hugo.xlsx
+++ b/diaries/CEX_Diary_hugo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr_kk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr_kk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C445A103-474E-9744-8D40-778706F7B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08FD2DED-50E8-BE4B-8B74-28F4C6711358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Session ID</t>
   </si>
@@ -83,10 +83,7 @@
     <t>Would you feel confident repeating this task in this SSG? (Y/N)</t>
   </si>
   <si>
-    <t>hugo-1</t>
-  </si>
-  <si>
-    <t>2025-06-20</t>
+    <t>Hugo-2</t>
   </si>
   <si>
     <t>14:00</t>
@@ -107,13 +104,22 @@
     <t>VS Code, ChatGPT</t>
   </si>
   <si>
+    <t>VS Code, Hugo Docs, ChatGPT</t>
+  </si>
+  <si>
     <t>Theme setup required extra configuration; Needed to understand data folder vs. content.</t>
+  </si>
+  <si>
+    <t>Challenge with data referencing in template logic using `index`, `where`, and `.Params.id`</t>
   </si>
   <si>
     <t>https://gohugo.io/getting-started/
 https://gohugo.io/templates/</t>
   </si>
   <si>
+    <t>https://gohugo.io/templates/introduction/, ChatGPT, Hugo GitHub discussions</t>
+  </si>
+  <si>
     <t>Theme path, route structure; contact form required Markdown content fix.</t>
   </si>
   <si>
@@ -123,17 +129,38 @@
     <t>Data wasn't rendering because of incorrect front matter in markdown.</t>
   </si>
   <si>
+    <t>Page not loading due to misuse of `first` and incorrect ID matching</t>
+  </si>
+  <si>
     <t>ChatGPT, Hugo Docs, GitHub issues</t>
   </si>
   <si>
+    <t>ChatGPT, Hugo Docs, GitHub</t>
+  </si>
+  <si>
     <t>Figuring out content vs data directory differences was annoying.</t>
+  </si>
+  <si>
+    <t>Load ontology data into the SSG: 3
+Create templates to list teams and their members: 3
+Render one team detail page dynamically using ontology: 3
+Display one training schedule: 2</t>
+  </si>
+  <si>
+    <t>Understanding Go templating logic and data filtering was tricky</t>
+  </si>
+  <si>
+    <t>No plugins. Build failed once due to misuse of 'first' function and missing team ID mapping.</t>
+  </si>
+  <si>
+    <t>Hugo-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,12 +182,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,12 +223,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -516,35 +541,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="98.5" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="85" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" customWidth="1"/>
-    <col min="11" max="11" width="58.5" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="63.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26" customWidth="1"/>
-    <col min="15" max="15" width="38.5" customWidth="1"/>
-    <col min="16" max="16" width="32.83203125" customWidth="1"/>
-    <col min="17" max="17" width="75" customWidth="1"/>
-    <col min="18" max="18" width="55" customWidth="1"/>
-    <col min="19" max="19" width="55.83203125" customWidth="1"/>
-    <col min="20" max="20" width="60.83203125" customWidth="1"/>
-    <col min="21" max="21" width="38" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="83" customWidth="1"/>
+    <col min="8" max="8" width="68" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="79.33203125" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="41" customWidth="1"/>
+    <col min="14" max="14" width="34.83203125" customWidth="1"/>
+    <col min="15" max="15" width="48.33203125" customWidth="1"/>
+    <col min="16" max="16" width="58" customWidth="1"/>
+    <col min="17" max="17" width="71.33203125" customWidth="1"/>
+    <col min="18" max="18" width="63" customWidth="1"/>
+    <col min="19" max="19" width="45.5" customWidth="1"/>
+    <col min="20" max="20" width="59.6640625" customWidth="1"/>
+    <col min="21" max="21" width="69.33203125" customWidth="1"/>
+    <col min="22" max="22" width="71" customWidth="1"/>
+    <col min="23" max="23" width="72.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,70 +633,132 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P2">
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="80" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45839</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
